--- a/Code/Results/Cases/Case_5_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_172/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.59344051497322</v>
+        <v>16.90532904932644</v>
       </c>
       <c r="C2">
-        <v>14.34048571357265</v>
+        <v>10.58136980179555</v>
       </c>
       <c r="D2">
-        <v>4.427529725214194</v>
+        <v>4.729078971557712</v>
       </c>
       <c r="E2">
-        <v>6.414274978475958</v>
+        <v>11.2443039230366</v>
       </c>
       <c r="F2">
-        <v>17.41666371723432</v>
+        <v>23.43303130976401</v>
       </c>
       <c r="I2">
-        <v>11.81703133627748</v>
+        <v>20.96508356542171</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.449498338589235</v>
+        <v>9.841459993918527</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.55272487361382</v>
+        <v>20.96543010837522</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.95607415446198</v>
+        <v>16.20083200353795</v>
       </c>
       <c r="C3">
-        <v>13.63287363884355</v>
+        <v>10.26389082591402</v>
       </c>
       <c r="D3">
-        <v>4.288637517108537</v>
+        <v>4.684323851077968</v>
       </c>
       <c r="E3">
-        <v>6.517295731112157</v>
+        <v>11.29889216155078</v>
       </c>
       <c r="F3">
-        <v>16.98424737630231</v>
+        <v>23.48647448217628</v>
       </c>
       <c r="I3">
-        <v>12.14792061185412</v>
+        <v>21.12187738033639</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.168384523955281</v>
+        <v>9.807471450699259</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.48176620070509</v>
+        <v>21.06552567469965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.89110871012766</v>
+        <v>15.75268506531014</v>
       </c>
       <c r="C4">
-        <v>13.1795868553853</v>
+        <v>10.0630030416044</v>
       </c>
       <c r="D4">
-        <v>4.201020849485138</v>
+        <v>4.656487039072693</v>
       </c>
       <c r="E4">
-        <v>6.585352928846707</v>
+        <v>11.33453456465055</v>
       </c>
       <c r="F4">
-        <v>16.73904363077737</v>
+        <v>23.52808438401497</v>
       </c>
       <c r="I4">
-        <v>12.36656518490326</v>
+        <v>21.22394490102226</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.993775586953596</v>
+        <v>9.788220897778718</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.45875692072127</v>
+        <v>21.13363487981603</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.44205379009143</v>
+        <v>15.56637990378482</v>
       </c>
       <c r="C5">
-        <v>12.99027817335284</v>
+        <v>9.979733876691101</v>
       </c>
       <c r="D5">
-        <v>4.164763564749347</v>
+        <v>4.645060004190032</v>
       </c>
       <c r="E5">
-        <v>6.614254799241756</v>
+        <v>11.34959383497547</v>
       </c>
       <c r="F5">
-        <v>16.64424513379893</v>
+        <v>23.54724161465532</v>
       </c>
       <c r="I5">
-        <v>12.45932648826698</v>
+        <v>21.26699470959757</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.922216140147714</v>
+        <v>9.780788611670516</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.4543267298527</v>
+        <v>21.16305416718479</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.36657588690273</v>
+        <v>15.5352292393528</v>
       </c>
       <c r="C6">
-        <v>12.95857097745979</v>
+        <v>9.965825018623475</v>
       </c>
       <c r="D6">
-        <v>4.158710766666778</v>
+        <v>4.643157711752456</v>
       </c>
       <c r="E6">
-        <v>6.619123388272574</v>
+        <v>11.3521267207185</v>
       </c>
       <c r="F6">
-        <v>16.62881343253051</v>
+        <v>23.5505552432968</v>
       </c>
       <c r="I6">
-        <v>12.47494441993139</v>
+        <v>21.27423104176428</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.910312382639964</v>
+        <v>9.779579550104538</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.45388306172208</v>
+        <v>21.16803949636331</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.8851137336011</v>
+        <v>15.75018706004028</v>
       </c>
       <c r="C7">
-        <v>13.17705215483263</v>
+        <v>10.06188560973205</v>
       </c>
       <c r="D7">
-        <v>4.200534060824803</v>
+        <v>4.656333258840439</v>
       </c>
       <c r="E7">
-        <v>6.58573803001596</v>
+        <v>11.33473549376842</v>
       </c>
       <c r="F7">
-        <v>16.7377443921812</v>
+        <v>23.52833384922659</v>
       </c>
       <c r="I7">
-        <v>12.36780165251074</v>
+        <v>21.22451958969522</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.992812012413893</v>
+        <v>9.788118986372497</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.45867745110132</v>
+        <v>21.13402491090552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04119912849749</v>
+        <v>16.66578540602316</v>
       </c>
       <c r="C8">
-        <v>14.10048017424575</v>
+        <v>10.47319138236871</v>
       </c>
       <c r="D8">
-        <v>4.380144305163125</v>
+        <v>4.713725355615991</v>
       </c>
       <c r="E8">
-        <v>6.448775011840822</v>
+        <v>11.26268511315002</v>
       </c>
       <c r="F8">
-        <v>17.26337196412881</v>
+        <v>23.44962683290571</v>
       </c>
       <c r="I8">
-        <v>11.92776197099967</v>
+        <v>21.01794268179244</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.353042448125898</v>
+        <v>9.829408220527997</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.52386094869089</v>
+        <v>20.99855806804023</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.800168690272</v>
+        <v>18.32871560163884</v>
       </c>
       <c r="C9">
-        <v>15.75729908047177</v>
+        <v>11.22888965123296</v>
       </c>
       <c r="D9">
-        <v>4.712481281866389</v>
+        <v>4.823159012711213</v>
       </c>
       <c r="E9">
-        <v>6.220257878383939</v>
+        <v>11.13823946873631</v>
       </c>
       <c r="F9">
-        <v>18.45327497968545</v>
+        <v>23.3654988648326</v>
       </c>
       <c r="I9">
-        <v>11.19966773427586</v>
+        <v>20.65887061883323</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.039742779961815</v>
+        <v>9.922960637898093</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.82400411016345</v>
+        <v>20.78602393239085</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.2816160748503</v>
+        <v>19.45960672573077</v>
       </c>
       <c r="C10">
-        <v>16.8759219441619</v>
+        <v>11.74877091343444</v>
       </c>
       <c r="D10">
-        <v>4.942990262995969</v>
+        <v>4.901295433160184</v>
       </c>
       <c r="E10">
-        <v>6.079820478087421</v>
+        <v>11.05705609475029</v>
       </c>
       <c r="F10">
-        <v>19.42089915183956</v>
+        <v>23.34699124613474</v>
       </c>
       <c r="I10">
-        <v>10.76640255158667</v>
+        <v>20.42317635572227</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.527926785123189</v>
+        <v>9.998994957978043</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.16078359513351</v>
+        <v>20.66272354443375</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.35094320073872</v>
+        <v>19.9526972741925</v>
       </c>
       <c r="C11">
-        <v>17.36278637142604</v>
+        <v>11.97683905555715</v>
       </c>
       <c r="D11">
-        <v>5.044632261655411</v>
+        <v>4.936274066615988</v>
       </c>
       <c r="E11">
-        <v>6.022655586129736</v>
+        <v>11.02234437297453</v>
       </c>
       <c r="F11">
-        <v>19.8804547695428</v>
+        <v>23.34804994690561</v>
       </c>
       <c r="I11">
-        <v>10.59655300057217</v>
+        <v>20.32207362663525</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.745774235064124</v>
+        <v>10.03508375501266</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.34122708353059</v>
+        <v>20.61385969187156</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.74742507529388</v>
+        <v>20.13623565170918</v>
       </c>
       <c r="C12">
-        <v>17.54395517421404</v>
+        <v>12.06193542354952</v>
       </c>
       <c r="D12">
-        <v>5.082641544357296</v>
+        <v>4.94943192342184</v>
       </c>
       <c r="E12">
-        <v>6.002046741010606</v>
+        <v>11.00951880747862</v>
       </c>
       <c r="F12">
-        <v>20.05718627068722</v>
+        <v>23.34981750186194</v>
       </c>
       <c r="I12">
-        <v>10.53665531396776</v>
+        <v>20.28466989770184</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.827615178447113</v>
+        <v>10.04895753269622</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.41360828391617</v>
+        <v>20.5964028822474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.66240964243492</v>
+        <v>20.09685061905292</v>
       </c>
       <c r="C13">
-        <v>17.50507974865845</v>
+        <v>12.04366562360644</v>
       </c>
       <c r="D13">
-        <v>5.074477176587646</v>
+        <v>4.946602148412051</v>
       </c>
       <c r="E13">
-        <v>6.006437830640139</v>
+        <v>11.01226683542257</v>
       </c>
       <c r="F13">
-        <v>20.01900471436462</v>
+        <v>23.34937600292955</v>
       </c>
       <c r="I13">
-        <v>10.54935012164071</v>
+        <v>20.29268620941857</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.810018924387727</v>
+        <v>10.04596045842613</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.39783759021509</v>
+        <v>20.60011583799426</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.38373071012316</v>
+        <v>19.96786149169695</v>
       </c>
       <c r="C14">
-        <v>17.37775542960425</v>
+        <v>11.98386569843754</v>
       </c>
       <c r="D14">
-        <v>5.047769024994229</v>
+        <v>4.937358367026524</v>
       </c>
       <c r="E14">
-        <v>6.020938839941874</v>
+        <v>11.02128281290873</v>
       </c>
       <c r="F14">
-        <v>19.8949407304513</v>
+        <v>23.34816795939212</v>
       </c>
       <c r="I14">
-        <v>10.59153350004796</v>
+        <v>20.31897871569379</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.752520650416731</v>
+        <v>10.03622104280502</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.34710003766473</v>
+        <v>20.61240248529739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.21193472989425</v>
+        <v>19.88843417511351</v>
       </c>
       <c r="C15">
-        <v>17.29934865054291</v>
+        <v>11.94706981723114</v>
       </c>
       <c r="D15">
-        <v>5.031346485998895</v>
+        <v>4.931684663476753</v>
       </c>
       <c r="E15">
-        <v>6.029958587388613</v>
+        <v>11.0268469020629</v>
       </c>
       <c r="F15">
-        <v>19.81929838898835</v>
+        <v>23.34760605911133</v>
       </c>
       <c r="I15">
-        <v>10.61796364467339</v>
+        <v>20.33519852529238</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.717215076225347</v>
+        <v>10.03028217919829</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.31655305159811</v>
+        <v>20.62006497075793</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.21054480855539</v>
+        <v>19.4269422568432</v>
       </c>
       <c r="C16">
-        <v>16.84365838093013</v>
+        <v>11.73369158361997</v>
       </c>
       <c r="D16">
-        <v>4.936281393083966</v>
+        <v>4.898997557000831</v>
       </c>
       <c r="E16">
-        <v>6.083697561899306</v>
+        <v>11.05936923201921</v>
       </c>
       <c r="F16">
-        <v>19.39124914639037</v>
+        <v>23.3471131333948</v>
       </c>
       <c r="I16">
-        <v>10.7780925325247</v>
+        <v>20.42990690922032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.513600756018594</v>
+        <v>9.996665983489869</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.14955123917494</v>
+        <v>20.66606298994536</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.58106043475325</v>
+        <v>19.13827556553996</v>
       </c>
       <c r="C17">
-        <v>16.55844427254396</v>
+        <v>11.60059029852801</v>
       </c>
       <c r="D17">
-        <v>4.877124377055864</v>
+        <v>4.878795505108132</v>
       </c>
       <c r="E17">
-        <v>6.118435002960611</v>
+        <v>11.07988890312775</v>
       </c>
       <c r="F17">
-        <v>19.13355984260781</v>
+        <v>23.34924142666573</v>
       </c>
       <c r="I17">
-        <v>10.88364414665051</v>
+        <v>20.48957536882275</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.387571414525663</v>
+        <v>9.976422217531233</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05417959567824</v>
+        <v>20.69613767597885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.2133910159614</v>
+        <v>18.97023740928912</v>
       </c>
       <c r="C18">
-        <v>16.39232662776627</v>
+        <v>11.52324357080238</v>
       </c>
       <c r="D18">
-        <v>4.84279681489738</v>
+        <v>4.867122916894973</v>
       </c>
       <c r="E18">
-        <v>6.139042949933793</v>
+        <v>11.09190014139607</v>
       </c>
       <c r="F18">
-        <v>18.98717223760105</v>
+        <v>23.35135754760665</v>
       </c>
       <c r="I18">
-        <v>10.94688544248556</v>
+        <v>20.52447058914454</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.314686561718606</v>
+        <v>9.964920264680771</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00188165624824</v>
+        <v>20.71411554787137</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.08793835564214</v>
+        <v>18.9130020046141</v>
       </c>
       <c r="C19">
-        <v>16.33572773166809</v>
+        <v>11.49692136033857</v>
       </c>
       <c r="D19">
-        <v>4.831122809516258</v>
+        <v>4.863161890517233</v>
       </c>
       <c r="E19">
-        <v>6.146126209537606</v>
+        <v>11.09600281610134</v>
       </c>
       <c r="F19">
-        <v>18.93792446990467</v>
+        <v>23.35222708863806</v>
       </c>
       <c r="I19">
-        <v>10.96871814334788</v>
+        <v>20.53638428864278</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.289942505003637</v>
+        <v>9.961050481943699</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.98460929021208</v>
+        <v>20.72031904589739</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.64864963303186</v>
+        <v>19.16921298280146</v>
       </c>
       <c r="C20">
-        <v>16.58902031976031</v>
+        <v>11.61484138604161</v>
       </c>
       <c r="D20">
-        <v>4.883453136938087</v>
+        <v>4.880951570036138</v>
       </c>
       <c r="E20">
-        <v>6.114671660291315</v>
+        <v>11.07768293289842</v>
       </c>
       <c r="F20">
-        <v>19.16080266534748</v>
+        <v>23.34892251712662</v>
       </c>
       <c r="I20">
-        <v>10.87214260967056</v>
+        <v>20.48316398159914</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.401028806195017</v>
+        <v>9.978562590008091</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.06406636624458</v>
+        <v>20.69286576994518</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.46581390340071</v>
+        <v>20.00583596207962</v>
       </c>
       <c r="C21">
-        <v>17.41524060028125</v>
+        <v>12.00146521764904</v>
       </c>
       <c r="D21">
-        <v>5.055627018071009</v>
+        <v>4.940075922607199</v>
       </c>
       <c r="E21">
-        <v>6.016650757468029</v>
+        <v>11.01862594443466</v>
       </c>
       <c r="F21">
-        <v>19.93130842841513</v>
+        <v>23.34848567885335</v>
       </c>
       <c r="I21">
-        <v>10.57901895057505</v>
+        <v>20.31123202197102</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.769427321741459</v>
+        <v>10.03907617288773</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.3618919664255</v>
+        <v>20.60876512686886</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60424072263307</v>
+        <v>20.53401616561887</v>
       </c>
       <c r="C22">
-        <v>17.93658800517028</v>
+        <v>12.24673314597908</v>
       </c>
       <c r="D22">
-        <v>5.165346791056898</v>
+        <v>4.97820252418012</v>
       </c>
       <c r="E22">
-        <v>5.958678506010597</v>
+        <v>10.98188820513242</v>
       </c>
       <c r="F22">
-        <v>20.45063199450649</v>
+        <v>23.35616663698186</v>
       </c>
       <c r="I22">
-        <v>10.41348688306065</v>
+        <v>20.20400482268783</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.006376150187664</v>
+        <v>10.07983219591624</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.58020055027063</v>
+        <v>20.55990586128441</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.00110589578014</v>
+        <v>20.25385145608345</v>
       </c>
       <c r="C23">
-        <v>17.66004734603559</v>
+        <v>12.11652427415692</v>
       </c>
       <c r="D23">
-        <v>5.107049055212905</v>
+        <v>4.95790279797651</v>
       </c>
       <c r="E23">
-        <v>5.98903661076533</v>
+        <v>11.0013257109947</v>
       </c>
       <c r="F23">
-        <v>20.17204138723573</v>
+        <v>23.35133741793356</v>
       </c>
       <c r="I23">
-        <v>10.49927062047766</v>
+        <v>20.2607628748061</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.880273961930703</v>
+        <v>10.05797223620708</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.46148063715827</v>
+        <v>20.58542183686675</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.61811053819596</v>
+        <v>19.15523264591532</v>
       </c>
       <c r="C24">
-        <v>16.57520356509032</v>
+        <v>11.60840103487065</v>
       </c>
       <c r="D24">
-        <v>4.880592891870339</v>
+        <v>4.879976993739231</v>
       </c>
       <c r="E24">
-        <v>6.116371088968918</v>
+        <v>11.078679584795</v>
       </c>
       <c r="F24">
-        <v>19.14848069266002</v>
+        <v>23.34906391621472</v>
       </c>
       <c r="I24">
-        <v>10.87733452346239</v>
+        <v>20.48606072886169</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.394946051843318</v>
+        <v>9.977594501959382</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.05958867950407</v>
+        <v>20.6943428575898</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.83291410825452</v>
+        <v>17.89417387060803</v>
       </c>
       <c r="C25">
-        <v>15.32614409487956</v>
+        <v>11.03037386063999</v>
       </c>
       <c r="D25">
-        <v>4.624875797306888</v>
+        <v>4.793925753461214</v>
       </c>
       <c r="E25">
-        <v>6.277494856644548</v>
+        <v>11.17010434038284</v>
       </c>
       <c r="F25">
-        <v>18.1146655321481</v>
+        <v>23.38068381269744</v>
       </c>
       <c r="I25">
-        <v>11.38036151859697</v>
+        <v>20.75107646186897</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.85656975464414</v>
+        <v>9.896341693515618</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.72312861047633</v>
+        <v>20.83778455662568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_172/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.90532904932644</v>
+        <v>24.59344051497326</v>
       </c>
       <c r="C2">
-        <v>10.58136980179555</v>
+        <v>14.34048571357279</v>
       </c>
       <c r="D2">
-        <v>4.729078971557712</v>
+        <v>4.427529725214153</v>
       </c>
       <c r="E2">
-        <v>11.2443039230366</v>
+        <v>6.414274978475897</v>
       </c>
       <c r="F2">
-        <v>23.43303130976401</v>
+        <v>17.41666371723422</v>
       </c>
       <c r="I2">
-        <v>20.96508356542171</v>
+        <v>11.81703133627732</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.841459993918527</v>
+        <v>7.449498338589159</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.96543010837522</v>
+        <v>13.55272487361369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20083200353795</v>
+        <v>22.95607415446195</v>
       </c>
       <c r="C3">
-        <v>10.26389082591402</v>
+        <v>13.63287363884356</v>
       </c>
       <c r="D3">
-        <v>4.684323851077968</v>
+        <v>4.288637517108642</v>
       </c>
       <c r="E3">
-        <v>11.29889216155078</v>
+        <v>6.517295731112046</v>
       </c>
       <c r="F3">
-        <v>23.48647448217628</v>
+        <v>16.98424737630235</v>
       </c>
       <c r="I3">
-        <v>21.12187738033639</v>
+        <v>12.14792061185423</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.807471450699259</v>
+        <v>7.168384523955209</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.06552567469965</v>
+        <v>13.48176620070514</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75268506531014</v>
+        <v>21.89110871012764</v>
       </c>
       <c r="C4">
-        <v>10.0630030416044</v>
+        <v>13.17958685538526</v>
       </c>
       <c r="D4">
-        <v>4.656487039072693</v>
+        <v>4.201020849484903</v>
       </c>
       <c r="E4">
-        <v>11.33453456465055</v>
+        <v>6.585352928846768</v>
       </c>
       <c r="F4">
-        <v>23.52808438401497</v>
+        <v>16.7390436307774</v>
       </c>
       <c r="I4">
-        <v>21.22394490102226</v>
+        <v>12.36656518490322</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.788220897778718</v>
+        <v>6.993775586953589</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.13363487981603</v>
+        <v>13.45875692072122</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.56637990378482</v>
+        <v>21.44205379009147</v>
       </c>
       <c r="C5">
-        <v>9.979733876691101</v>
+        <v>12.99027817335289</v>
       </c>
       <c r="D5">
-        <v>4.645060004190032</v>
+        <v>4.164763564749509</v>
       </c>
       <c r="E5">
-        <v>11.34959383497547</v>
+        <v>6.614254799241643</v>
       </c>
       <c r="F5">
-        <v>23.54724161465532</v>
+        <v>16.64424513379885</v>
       </c>
       <c r="I5">
-        <v>21.26699470959757</v>
+        <v>12.45932648826691</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.780788611670516</v>
+        <v>6.92221614014766</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.16305416718479</v>
+        <v>13.45432672985264</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.5352292393528</v>
+        <v>21.36657588690277</v>
       </c>
       <c r="C6">
-        <v>9.965825018623475</v>
+        <v>12.9585709774597</v>
       </c>
       <c r="D6">
-        <v>4.643157711752456</v>
+        <v>4.158710766666681</v>
       </c>
       <c r="E6">
-        <v>11.3521267207185</v>
+        <v>6.619123388272513</v>
       </c>
       <c r="F6">
-        <v>23.5505552432968</v>
+        <v>16.62881343253039</v>
       </c>
       <c r="I6">
-        <v>21.27423104176428</v>
+        <v>12.47494441993118</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.779579550104538</v>
+        <v>6.910312382639969</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.16803949636331</v>
+        <v>13.45388306172188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.75018706004028</v>
+        <v>21.88511373360111</v>
       </c>
       <c r="C7">
-        <v>10.06188560973205</v>
+        <v>13.17705215483269</v>
       </c>
       <c r="D7">
-        <v>4.656333258840439</v>
+        <v>4.20053406082492</v>
       </c>
       <c r="E7">
-        <v>11.33473549376842</v>
+        <v>6.585738030015964</v>
       </c>
       <c r="F7">
-        <v>23.52833384922659</v>
+        <v>16.73774439218123</v>
       </c>
       <c r="I7">
-        <v>21.22451958969522</v>
+        <v>12.36780165251077</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.788118986372497</v>
+        <v>6.992812012413867</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.13402491090552</v>
+        <v>13.45867745110137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.66578540602316</v>
+        <v>24.04119912849748</v>
       </c>
       <c r="C8">
-        <v>10.47319138236871</v>
+        <v>14.10048017424568</v>
       </c>
       <c r="D8">
-        <v>4.713725355615991</v>
+        <v>4.380144305163233</v>
       </c>
       <c r="E8">
-        <v>11.26268511315002</v>
+        <v>6.448775011840759</v>
       </c>
       <c r="F8">
-        <v>23.44962683290571</v>
+        <v>17.26337196412884</v>
       </c>
       <c r="I8">
-        <v>21.01794268179244</v>
+        <v>11.92776197099973</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.829408220527997</v>
+        <v>7.353042448125898</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.99855806804023</v>
+        <v>13.52386094869098</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.32871560163884</v>
+        <v>27.80016869027198</v>
       </c>
       <c r="C9">
-        <v>11.22888965123296</v>
+        <v>15.75729908047204</v>
       </c>
       <c r="D9">
-        <v>4.823159012711213</v>
+        <v>4.712481281866434</v>
       </c>
       <c r="E9">
-        <v>11.13823946873631</v>
+        <v>6.220257878384055</v>
       </c>
       <c r="F9">
-        <v>23.3654988648326</v>
+        <v>18.45327497968545</v>
       </c>
       <c r="I9">
-        <v>20.65887061883323</v>
+        <v>11.19966773427592</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.922960637898093</v>
+        <v>8.039742779961779</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.78602393239085</v>
+        <v>13.8240041101634</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.45960672573077</v>
+        <v>30.28161607485032</v>
       </c>
       <c r="C10">
-        <v>11.74877091343444</v>
+        <v>16.87592194416183</v>
       </c>
       <c r="D10">
-        <v>4.901295433160184</v>
+        <v>4.942990262995969</v>
       </c>
       <c r="E10">
-        <v>11.05705609475029</v>
+        <v>6.079820478087488</v>
       </c>
       <c r="F10">
-        <v>23.34699124613474</v>
+        <v>19.42089915183957</v>
       </c>
       <c r="I10">
-        <v>20.42317635572227</v>
+        <v>10.76640255158669</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.998994957978043</v>
+        <v>8.52792678512321</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.66272354443375</v>
+        <v>14.16078359513352</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.9526972741925</v>
+        <v>31.35094320073871</v>
       </c>
       <c r="C11">
-        <v>11.97683905555715</v>
+        <v>17.36278637142586</v>
       </c>
       <c r="D11">
-        <v>4.936274066615988</v>
+        <v>5.044632261655527</v>
       </c>
       <c r="E11">
-        <v>11.02234437297453</v>
+        <v>6.022655586129915</v>
       </c>
       <c r="F11">
-        <v>23.34804994690561</v>
+        <v>19.88045476954283</v>
       </c>
       <c r="I11">
-        <v>20.32207362663525</v>
+        <v>10.59655300057223</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.03508375501266</v>
+        <v>8.745774235064181</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.61385969187156</v>
+        <v>14.34122708353066</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.13623565170918</v>
+        <v>31.74742507529385</v>
       </c>
       <c r="C12">
-        <v>12.06193542354952</v>
+        <v>17.54395517421407</v>
       </c>
       <c r="D12">
-        <v>4.94943192342184</v>
+        <v>5.08264154435733</v>
       </c>
       <c r="E12">
-        <v>11.00951880747862</v>
+        <v>6.002046741010666</v>
       </c>
       <c r="F12">
-        <v>23.34981750186194</v>
+        <v>20.05718627068727</v>
       </c>
       <c r="I12">
-        <v>20.28466989770184</v>
+        <v>10.53665531396783</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.04895753269622</v>
+        <v>8.827615178447111</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.5964028822474</v>
+        <v>14.41360828391621</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.09685061905292</v>
+        <v>31.66240964243485</v>
       </c>
       <c r="C13">
-        <v>12.04366562360644</v>
+        <v>17.50507974865854</v>
       </c>
       <c r="D13">
-        <v>4.946602148412051</v>
+        <v>5.074477176587579</v>
       </c>
       <c r="E13">
-        <v>11.01226683542257</v>
+        <v>6.006437830640176</v>
       </c>
       <c r="F13">
-        <v>23.34937600292955</v>
+        <v>20.01900471436468</v>
       </c>
       <c r="I13">
-        <v>20.29268620941857</v>
+        <v>10.54935012164092</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.04596045842613</v>
+        <v>8.810018924387723</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.60011583799426</v>
+        <v>14.39783759021518</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.96786149169695</v>
+        <v>31.38373071012316</v>
       </c>
       <c r="C14">
-        <v>11.98386569843754</v>
+        <v>17.37775542960428</v>
       </c>
       <c r="D14">
-        <v>4.937358367026524</v>
+        <v>5.047769024994188</v>
       </c>
       <c r="E14">
-        <v>11.02128281290873</v>
+        <v>6.020938839941924</v>
       </c>
       <c r="F14">
-        <v>23.34816795939212</v>
+        <v>19.89494073045134</v>
       </c>
       <c r="I14">
-        <v>20.31897871569379</v>
+        <v>10.59153350004804</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.03622104280502</v>
+        <v>8.752520650416734</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.61240248529739</v>
+        <v>14.34710003766478</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.88843417511351</v>
+        <v>31.21193472989427</v>
       </c>
       <c r="C15">
-        <v>11.94706981723114</v>
+        <v>17.29934865054287</v>
       </c>
       <c r="D15">
-        <v>4.931684663476753</v>
+        <v>5.031346485998754</v>
       </c>
       <c r="E15">
-        <v>11.0268469020629</v>
+        <v>6.029958587388573</v>
       </c>
       <c r="F15">
-        <v>23.34760605911133</v>
+        <v>19.81929838898843</v>
       </c>
       <c r="I15">
-        <v>20.33519852529238</v>
+        <v>10.61796364467344</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.03028217919829</v>
+        <v>8.717215076225306</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.62006497075793</v>
+        <v>14.31655305159813</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.4269422568432</v>
+        <v>30.21054480855538</v>
       </c>
       <c r="C16">
-        <v>11.73369158361997</v>
+        <v>16.8436583809302</v>
       </c>
       <c r="D16">
-        <v>4.898997557000831</v>
+        <v>4.936281393083958</v>
       </c>
       <c r="E16">
-        <v>11.05936923201921</v>
+        <v>6.083697561899365</v>
       </c>
       <c r="F16">
-        <v>23.3471131333948</v>
+        <v>19.39124914639039</v>
       </c>
       <c r="I16">
-        <v>20.42990690922032</v>
+        <v>10.77809253252474</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.996665983489869</v>
+        <v>8.513600756018604</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.66606298994536</v>
+        <v>14.14955123917496</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.13827556553996</v>
+        <v>29.58106043475329</v>
       </c>
       <c r="C17">
-        <v>11.60059029852801</v>
+        <v>16.55844427254387</v>
       </c>
       <c r="D17">
-        <v>4.878795505108132</v>
+        <v>4.877124377055899</v>
       </c>
       <c r="E17">
-        <v>11.07988890312775</v>
+        <v>6.118435002960664</v>
       </c>
       <c r="F17">
-        <v>23.34924142666573</v>
+        <v>19.13355984260774</v>
       </c>
       <c r="I17">
-        <v>20.48957536882275</v>
+        <v>10.88364414665036</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.976422217531233</v>
+        <v>8.387571414525699</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.69613767597885</v>
+        <v>14.05417959567818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.97023740928912</v>
+        <v>29.21339101596137</v>
       </c>
       <c r="C18">
-        <v>11.52324357080238</v>
+        <v>16.39232662776613</v>
       </c>
       <c r="D18">
-        <v>4.867122916894973</v>
+        <v>4.842796814897558</v>
       </c>
       <c r="E18">
-        <v>11.09190014139607</v>
+        <v>6.139042949933805</v>
       </c>
       <c r="F18">
-        <v>23.35135754760665</v>
+        <v>18.98717223760105</v>
       </c>
       <c r="I18">
-        <v>20.52447058914454</v>
+        <v>10.94688544248553</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.964920264680771</v>
+        <v>8.314686561718615</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.71411554787137</v>
+        <v>14.00188165624827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.9130020046141</v>
+        <v>29.08793835564212</v>
       </c>
       <c r="C19">
-        <v>11.49692136033857</v>
+        <v>16.33572773166814</v>
       </c>
       <c r="D19">
-        <v>4.863161890517233</v>
+        <v>4.831122809516105</v>
       </c>
       <c r="E19">
-        <v>11.09600281610134</v>
+        <v>6.14612620953749</v>
       </c>
       <c r="F19">
-        <v>23.35222708863806</v>
+        <v>18.93792446990471</v>
       </c>
       <c r="I19">
-        <v>20.53638428864278</v>
+        <v>10.96871814334791</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.961050481943699</v>
+        <v>8.289942505003587</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.72031904589739</v>
+        <v>13.98460929021212</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.16921298280146</v>
+        <v>29.64864963303185</v>
       </c>
       <c r="C20">
-        <v>11.61484138604161</v>
+        <v>16.5890203197603</v>
       </c>
       <c r="D20">
-        <v>4.880951570036138</v>
+        <v>4.883453136938165</v>
       </c>
       <c r="E20">
-        <v>11.07768293289842</v>
+        <v>6.114671660291315</v>
       </c>
       <c r="F20">
-        <v>23.34892251712662</v>
+        <v>19.16080266534749</v>
       </c>
       <c r="I20">
-        <v>20.48316398159914</v>
+        <v>10.87214260967072</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.978562590008091</v>
+        <v>8.401028806195001</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.69286576994518</v>
+        <v>14.06406636624463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.00583596207962</v>
+        <v>31.4658139034007</v>
       </c>
       <c r="C21">
-        <v>12.00146521764904</v>
+        <v>17.41524060028118</v>
       </c>
       <c r="D21">
-        <v>4.940075922607199</v>
+        <v>5.055627018071117</v>
       </c>
       <c r="E21">
-        <v>11.01862594443466</v>
+        <v>6.016650757468023</v>
       </c>
       <c r="F21">
-        <v>23.34848567885335</v>
+        <v>19.93130842841518</v>
       </c>
       <c r="I21">
-        <v>20.31123202197102</v>
+        <v>10.57901895057516</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.03907617288773</v>
+        <v>8.769427321741462</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.60876512686886</v>
+        <v>14.36189196642557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.53401616561887</v>
+        <v>32.60424072263304</v>
       </c>
       <c r="C22">
-        <v>12.24673314597908</v>
+        <v>17.93658800517023</v>
       </c>
       <c r="D22">
-        <v>4.97820252418012</v>
+        <v>5.165346791056996</v>
       </c>
       <c r="E22">
-        <v>10.98188820513242</v>
+        <v>5.958678506010605</v>
       </c>
       <c r="F22">
-        <v>23.35616663698186</v>
+        <v>20.45063199450655</v>
       </c>
       <c r="I22">
-        <v>20.20400482268783</v>
+        <v>10.41348688306077</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.07983219591624</v>
+        <v>9.006376150187672</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.55990586128441</v>
+        <v>14.58020055027073</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.25385145608345</v>
+        <v>32.00110589578019</v>
       </c>
       <c r="C23">
-        <v>12.11652427415692</v>
+        <v>17.66004734603554</v>
       </c>
       <c r="D23">
-        <v>4.95790279797651</v>
+        <v>5.107049055212853</v>
       </c>
       <c r="E23">
-        <v>11.0013257109947</v>
+        <v>5.989036610765435</v>
       </c>
       <c r="F23">
-        <v>23.35133741793356</v>
+        <v>20.1720413872357</v>
       </c>
       <c r="I23">
-        <v>20.2607628748061</v>
+        <v>10.49927062047753</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.05797223620708</v>
+        <v>8.880273961930731</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.58542183686675</v>
+        <v>14.46148063715822</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.15523264591532</v>
+        <v>29.61811053819604</v>
       </c>
       <c r="C24">
-        <v>11.60840103487065</v>
+        <v>16.57520356509007</v>
       </c>
       <c r="D24">
-        <v>4.879976993739231</v>
+        <v>4.880592891870444</v>
       </c>
       <c r="E24">
-        <v>11.078679584795</v>
+        <v>6.11637108896887</v>
       </c>
       <c r="F24">
-        <v>23.34906391621472</v>
+        <v>19.14848069266</v>
       </c>
       <c r="I24">
-        <v>20.48606072886169</v>
+        <v>10.87733452346225</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.977594501959382</v>
+        <v>8.394946051843343</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.6943428575898</v>
+        <v>14.05958867950403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.89417387060803</v>
+        <v>26.83291410825454</v>
       </c>
       <c r="C25">
-        <v>11.03037386063999</v>
+        <v>15.32614409487956</v>
       </c>
       <c r="D25">
-        <v>4.793925753461214</v>
+        <v>4.624875797306928</v>
       </c>
       <c r="E25">
-        <v>11.17010434038284</v>
+        <v>6.277494856644616</v>
       </c>
       <c r="F25">
-        <v>23.38068381269744</v>
+        <v>18.11466553214807</v>
       </c>
       <c r="I25">
-        <v>20.75107646186897</v>
+        <v>11.38036151859696</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.896341693515618</v>
+        <v>7.856569754644155</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.83778455662568</v>
+        <v>13.72312861047633</v>
       </c>
     </row>
   </sheetData>
